--- a/GASTOS APARTAMENTO 601.xlsx
+++ b/GASTOS APARTAMENTO 601.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,9 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5">
+        <v>4</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -564,7 +566,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="6">
         <f>SUM(B2:M2)</f>
-        <v>429049</v>
+        <v>429053</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -587,7 +589,9 @@
         <v>37000</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -595,7 +599,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="6">
         <f t="shared" ref="N3:N5" si="0">SUM(B3:M3)</f>
-        <v>202140</v>
+        <v>202144</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -618,7 +622,9 @@
         <v>47900</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>4</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -626,7 +632,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6">
         <f t="shared" si="0"/>
-        <v>257430</v>
+        <v>257434</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -670,7 +676,9 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -678,7 +686,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6">
         <f>SUM(B6:M6)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -722,7 +730,9 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>44</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -730,7 +740,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6">
         <f t="shared" ref="N8:N9" si="1">SUM(B8:M8)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -884,7 +894,7 @@
       </c>
       <c r="H13" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="3"/>
@@ -908,7 +918,7 @@
       </c>
       <c r="N13" s="8">
         <f>SUM(N2:N12)/10</f>
-        <v>867161.9</v>
+        <v>867167.9</v>
       </c>
     </row>
   </sheetData>

--- a/GASTOS APARTAMENTO 601.xlsx
+++ b/GASTOS APARTAMENTO 601.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,9 +556,7 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5">
-        <v>4</v>
-      </c>
+      <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -566,7 +564,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="6">
         <f>SUM(B2:M2)</f>
-        <v>429053</v>
+        <v>429049</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -589,9 +587,7 @@
         <v>37000</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5">
-        <v>4</v>
-      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -599,7 +595,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="6">
         <f t="shared" ref="N3:N5" si="0">SUM(B3:M3)</f>
-        <v>202144</v>
+        <v>202140</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -622,9 +618,7 @@
         <v>47900</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5">
-        <v>4</v>
-      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -632,7 +626,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6">
         <f t="shared" si="0"/>
-        <v>257434</v>
+        <v>257430</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -676,9 +670,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5">
-        <v>4</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -686,7 +678,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="6">
         <f>SUM(B6:M6)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -730,9 +722,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5">
-        <v>44</v>
-      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -740,7 +730,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6">
         <f t="shared" ref="N8:N9" si="1">SUM(B8:M8)</f>
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -894,7 +884,7 @@
       </c>
       <c r="H13" s="8">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="3"/>
@@ -918,7 +908,7 @@
       </c>
       <c r="N13" s="8">
         <f>SUM(N2:N12)/10</f>
-        <v>867167.9</v>
+        <v>867161.9</v>
       </c>
     </row>
   </sheetData>
